--- a/biology/Médecine/Paul_Farmer/Paul_Farmer.xlsx
+++ b/biology/Médecine/Paul_Farmer/Paul_Farmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Farmer, né le 26 octobre 1959 à North Adams dans le Massachusetts et mort le 21 février 2022 à Kigali, au Rwanda, est un médecin et anthropologue américain. Il est professeur d'anthropologie de la santé au département de médecine sociale à l'université Harvard. Son travail fait l'objet du livre de Tracy Kidder : (en) Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, a Man Who Would Cure the World. Le 24 avril 2021, le Dr Farmer avait été nommé Humanitaire Aurora, en reconnaissance de son travail avec Partners In Health (PIH).
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Farmer partagea longtemps son temps entre Brigham and Women's Hospital (en) à Boston et Zanmi Lasante (en) à Cange sur le plateau central en Haïti.
 Paul Farmer occupe la chaire internationale intitulée « La violence structurelle et la matérialité du social » au Collège de France en 2001-2002.
-Fin 2012, il est nommé conseiller spécial en médecine communautaire en Haïti par le Secrétaire général de l’ONU, Ban Ki-moon[1].
+Fin 2012, il est nommé conseiller spécial en médecine communautaire en Haïti par le Secrétaire général de l’ONU, Ban Ki-moon.
 Le 24 avril 2021, le Dr Farmer avait été nommé Humanitaire Aurora, en reconnaissance de son travail avec Partners In Health (PIH).
-Paul Farmer est mort le 21 février 2022 à Kigali au Rwanda[2].
+Paul Farmer est mort le 21 février 2022 à Kigali au Rwanda.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020: Lauréat du prix Berggruen[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020: Lauréat du prix Berggruen</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Paul Farmer, Pathologies of Power: Health, Human Rights, and the New War on the Poor, University of California Press, 2004,  (ISBN 978-0-5202-4326-2)
 (en) Paul Farmer, The Uses of Haiti, Common Courage Press, 1994; 3e édition, 2005  (ISBN 978-1-5675-1344-8)
